--- a/biology/Zoologie/Dryopsophus_andiirrmalin/Dryopsophus_andiirrmalin.xlsx
+++ b/biology/Zoologie/Dryopsophus_andiirrmalin/Dryopsophus_andiirrmalin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus andiirrmalin est une espèce d'amphibiens de la famille des Pelodryadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus andiirrmalin est une espèce d'amphibiens de la famille des Pelodryadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord du Queensland en Australie[1]. Elle se rencontre dans le Parc national du Cap-Melville dans quatre cours d'eau au-dessus de 60 m d'altitude sur le versant Est de la chaîne Melville ce qui représente 5 700 km2[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord du Queensland en Australie. Elle se rencontre dans le Parc national du Cap-Melville dans quatre cours d'eau au-dessus de 60 m d'altitude sur le versant Est de la chaîne Melville ce qui représente 5 700 km2.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 66,1 à 75,6 mm et les femelles de 92,3 à 109,7 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 66,1 à 75,6 mm et les femelles de 92,3 à 109,7 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce andiirrmalin signifie grenouille en Gambiilmugu.
 </t>
@@ -604,9 +622,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Keith R. McDonald, « A new stream-dwelling Litoria from the Melville Range, Queensland, Australia. », Memoirs of the Queensland Museum, Brisbane, Queensland Museum (d), vol. 42, no 1,‎ 1997, p. 307-309 [307] (ISSN 0079-8835 et 2204-1478, OCLC 1362342, 985513980 et 606437228, lire en ligne)</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Keith R. McDonald, « A new stream-dwelling Litoria from the Melville Range, Queensland, Australia. », Memoirs of the Queensland Museum, Brisbane, Queensland Museum (d), vol. 42, no 1,‎ 1997, p. 307-309  (ISSN 0079-8835 et 2204-1478, OCLC 1362342, 985513980 et 606437228, lire en ligne)</t>
         </is>
       </c>
     </row>
